--- a/fuzzy_stability_analysis/results/fuz_stability_link/M/correlations_matrixes.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/M/correlations_matrixes.xlsx
@@ -20,28 +20,28 @@
     <t>Fuzziness coefficient: 1.5</t>
   </si>
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>fuz_1.5_entropy</t>
@@ -492,28 +492,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.003</v>
+        <v>-0.423</v>
       </c>
       <c r="C3">
-        <v>-0.048</v>
+        <v>-0.469</v>
       </c>
       <c r="D3">
-        <v>-0.1</v>
+        <v>-0.545</v>
       </c>
       <c r="E3">
-        <v>-0.148</v>
+        <v>-0.643</v>
       </c>
       <c r="F3">
-        <v>-0.07099999999999999</v>
+        <v>-0.442</v>
       </c>
       <c r="G3">
-        <v>-0.132</v>
+        <v>-0.489</v>
       </c>
       <c r="H3">
-        <v>-0.19</v>
+        <v>-0.537</v>
       </c>
       <c r="I3">
-        <v>-0.212</v>
+        <v>-0.584</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -521,28 +521,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.014</v>
+        <v>0.629</v>
       </c>
       <c r="C4">
-        <v>0.014</v>
+        <v>0.636</v>
       </c>
       <c r="D4">
-        <v>0.052</v>
+        <v>0.66</v>
       </c>
       <c r="E4">
-        <v>0.095</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F4">
-        <v>0.025</v>
+        <v>0.628</v>
       </c>
       <c r="G4">
-        <v>0.058</v>
+        <v>0.637</v>
       </c>
       <c r="H4">
-        <v>0.112</v>
+        <v>0.639</v>
       </c>
       <c r="I4">
-        <v>0.146</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04</v>
+        <v>-0.327</v>
       </c>
       <c r="C8">
-        <v>-0.1</v>
+        <v>-0.385</v>
       </c>
       <c r="D8">
-        <v>-0.169</v>
+        <v>-0.488</v>
       </c>
       <c r="E8">
-        <v>-0.231</v>
+        <v>-0.616</v>
       </c>
       <c r="F8">
-        <v>-0.134</v>
+        <v>-0.368</v>
       </c>
       <c r="G8">
-        <v>-0.209</v>
+        <v>-0.42</v>
       </c>
       <c r="H8">
-        <v>-0.276</v>
+        <v>-0.487</v>
       </c>
       <c r="I8">
-        <v>-0.303</v>
+        <v>-0.541</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -610,28 +610,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.008</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.057</v>
+        <v>0.549</v>
       </c>
       <c r="D9">
-        <v>0.123</v>
+        <v>0.627</v>
       </c>
       <c r="E9">
-        <v>0.186</v>
+        <v>0.717</v>
       </c>
       <c r="F9">
-        <v>0.079</v>
+        <v>0.524</v>
       </c>
       <c r="G9">
-        <v>0.132</v>
+        <v>0.57</v>
       </c>
       <c r="H9">
-        <v>0.212</v>
+        <v>0.615</v>
       </c>
       <c r="I9">
-        <v>0.258</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.064</v>
+        <v>-0.279</v>
       </c>
       <c r="C13">
-        <v>-0.131</v>
+        <v>-0.337</v>
       </c>
       <c r="D13">
-        <v>-0.202</v>
+        <v>-0.445</v>
       </c>
       <c r="E13">
-        <v>-0.269</v>
+        <v>-0.578</v>
       </c>
       <c r="F13">
-        <v>-0.166</v>
+        <v>-0.326</v>
       </c>
       <c r="G13">
-        <v>-0.235</v>
+        <v>-0.372</v>
       </c>
       <c r="H13">
-        <v>-0.305</v>
+        <v>-0.44</v>
       </c>
       <c r="I13">
-        <v>-0.338</v>
+        <v>-0.489</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.029</v>
+        <v>0.429</v>
       </c>
       <c r="C14">
-        <v>0.093</v>
+        <v>0.489</v>
       </c>
       <c r="D14">
-        <v>0.175</v>
+        <v>0.585</v>
       </c>
       <c r="E14">
-        <v>0.248</v>
+        <v>0.695</v>
       </c>
       <c r="F14">
-        <v>0.113</v>
+        <v>0.465</v>
       </c>
       <c r="G14">
-        <v>0.173</v>
+        <v>0.517</v>
       </c>
       <c r="H14">
-        <v>0.272</v>
+        <v>0.574</v>
       </c>
       <c r="I14">
-        <v>0.33</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -759,28 +759,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.073</v>
+        <v>-0.249</v>
       </c>
       <c r="C18">
-        <v>-0.139</v>
+        <v>-0.304</v>
       </c>
       <c r="D18">
-        <v>-0.205</v>
+        <v>-0.413</v>
       </c>
       <c r="E18">
-        <v>-0.269</v>
+        <v>-0.546</v>
       </c>
       <c r="F18">
-        <v>-0.175</v>
+        <v>-0.299</v>
       </c>
       <c r="G18">
-        <v>-0.235</v>
+        <v>-0.338</v>
       </c>
       <c r="H18">
-        <v>-0.299</v>
+        <v>-0.403</v>
       </c>
       <c r="I18">
-        <v>-0.332</v>
+        <v>-0.444</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -788,28 +788,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.039</v>
+        <v>0.39</v>
       </c>
       <c r="C19">
-        <v>0.113</v>
+        <v>0.45</v>
       </c>
       <c r="D19">
-        <v>0.204</v>
+        <v>0.552</v>
       </c>
       <c r="E19">
-        <v>0.281</v>
+        <v>0.67</v>
       </c>
       <c r="F19">
-        <v>0.124</v>
+        <v>0.433</v>
       </c>
       <c r="G19">
-        <v>0.186</v>
+        <v>0.481</v>
       </c>
       <c r="H19">
-        <v>0.299</v>
+        <v>0.541</v>
       </c>
       <c r="I19">
-        <v>0.366</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -848,28 +848,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.111</v>
+        <v>-0.197</v>
       </c>
       <c r="C23">
-        <v>-0.174</v>
+        <v>-0.257</v>
       </c>
       <c r="D23">
-        <v>-0.227</v>
+        <v>-0.378</v>
       </c>
       <c r="E23">
-        <v>-0.279</v>
+        <v>-0.541</v>
       </c>
       <c r="F23">
-        <v>-0.16</v>
+        <v>-0.286</v>
       </c>
       <c r="G23">
-        <v>-0.23</v>
+        <v>-0.315</v>
       </c>
       <c r="H23">
-        <v>-0.279</v>
+        <v>-0.383</v>
       </c>
       <c r="I23">
-        <v>-0.311</v>
+        <v>-0.424</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -877,28 +877,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.204</v>
+        <v>0.205</v>
       </c>
       <c r="C24">
-        <v>0.294</v>
+        <v>0.281</v>
       </c>
       <c r="D24">
-        <v>0.363</v>
+        <v>0.415</v>
       </c>
       <c r="E24">
-        <v>0.422</v>
+        <v>0.577</v>
       </c>
       <c r="F24">
-        <v>0.25</v>
+        <v>0.298</v>
       </c>
       <c r="G24">
-        <v>0.346</v>
+        <v>0.367</v>
       </c>
       <c r="H24">
-        <v>0.413</v>
+        <v>0.479</v>
       </c>
       <c r="I24">
-        <v>0.455</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -937,28 +937,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.076</v>
+        <v>-0.188</v>
       </c>
       <c r="C28">
-        <v>-0.135</v>
+        <v>-0.245</v>
       </c>
       <c r="D28">
-        <v>-0.188</v>
+        <v>-0.363</v>
       </c>
       <c r="E28">
-        <v>-0.245</v>
+        <v>-0.525</v>
       </c>
       <c r="F28">
-        <v>-0.175</v>
+        <v>-0.273</v>
       </c>
       <c r="G28">
-        <v>-0.224</v>
+        <v>-0.298</v>
       </c>
       <c r="H28">
-        <v>-0.273</v>
+        <v>-0.362</v>
       </c>
       <c r="I28">
-        <v>-0.298</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -966,28 +966,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.035</v>
+        <v>0.191</v>
       </c>
       <c r="C29">
-        <v>0.106</v>
+        <v>0.265</v>
       </c>
       <c r="D29">
-        <v>0.191</v>
+        <v>0.398</v>
       </c>
       <c r="E29">
-        <v>0.265</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F29">
-        <v>0.117</v>
+        <v>0.282</v>
       </c>
       <c r="G29">
-        <v>0.167</v>
+        <v>0.352</v>
       </c>
       <c r="H29">
-        <v>0.282</v>
+        <v>0.466</v>
       </c>
       <c r="I29">
-        <v>0.352</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1039,28 +1039,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.139</v>
+        <v>-0.418</v>
       </c>
       <c r="C3">
-        <v>-0.197</v>
+        <v>-0.343</v>
       </c>
       <c r="D3">
-        <v>-0.268</v>
+        <v>-0.624</v>
       </c>
       <c r="E3">
-        <v>-0.24</v>
+        <v>-0.606</v>
       </c>
       <c r="F3">
-        <v>-0.318</v>
+        <v>-0.42</v>
       </c>
       <c r="G3">
-        <v>-0.484</v>
+        <v>-0.436</v>
       </c>
       <c r="H3">
         <v>-0.513</v>
       </c>
       <c r="I3">
-        <v>-0.432</v>
+        <v>-0.499</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1068,28 +1068,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.126</v>
+        <v>0.442</v>
       </c>
       <c r="C4">
-        <v>0.177</v>
+        <v>0.367</v>
       </c>
       <c r="D4">
-        <v>0.262</v>
+        <v>0.638</v>
       </c>
       <c r="E4">
-        <v>0.233</v>
+        <v>0.617</v>
       </c>
       <c r="F4">
-        <v>0.334</v>
+        <v>0.421</v>
       </c>
       <c r="G4">
-        <v>0.477</v>
+        <v>0.437</v>
       </c>
       <c r="H4">
-        <v>0.508</v>
+        <v>0.513</v>
       </c>
       <c r="I4">
-        <v>0.445</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.175</v>
+        <v>-0.389</v>
       </c>
       <c r="C8">
-        <v>-0.249</v>
+        <v>-0.327</v>
       </c>
       <c r="D8">
-        <v>-0.326</v>
+        <v>-0.63</v>
       </c>
       <c r="E8">
-        <v>-0.293</v>
+        <v>-0.616</v>
       </c>
       <c r="F8">
-        <v>-0.384</v>
+        <v>-0.395</v>
       </c>
       <c r="G8">
-        <v>-0.49</v>
+        <v>-0.398</v>
       </c>
       <c r="H8">
-        <v>-0.528</v>
+        <v>-0.476</v>
       </c>
       <c r="I8">
-        <v>-0.467</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.157</v>
+        <v>0.431</v>
       </c>
       <c r="C9">
-        <v>0.224</v>
+        <v>0.364</v>
       </c>
       <c r="D9">
-        <v>0.335</v>
+        <v>0.652</v>
       </c>
       <c r="E9">
-        <v>0.289</v>
+        <v>0.635</v>
       </c>
       <c r="F9">
-        <v>0.431</v>
+        <v>0.41</v>
       </c>
       <c r="G9">
-        <v>0.485</v>
+        <v>0.413</v>
       </c>
       <c r="H9">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="I9">
-        <v>0.507</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1217,28 +1217,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.191</v>
+        <v>-0.365</v>
       </c>
       <c r="C13">
-        <v>-0.275</v>
+        <v>-0.312</v>
       </c>
       <c r="D13">
-        <v>-0.353</v>
+        <v>-0.629</v>
       </c>
       <c r="E13">
-        <v>-0.31</v>
+        <v>-0.617</v>
       </c>
       <c r="F13">
-        <v>-0.436</v>
+        <v>-0.377</v>
       </c>
       <c r="G13">
-        <v>-0.459</v>
+        <v>-0.37</v>
       </c>
       <c r="H13">
-        <v>-0.502</v>
+        <v>-0.45</v>
       </c>
       <c r="I13">
-        <v>-0.47</v>
+        <v>-0.432</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1246,28 +1246,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.177</v>
+        <v>0.426</v>
       </c>
       <c r="C14">
-        <v>0.244</v>
+        <v>0.365</v>
       </c>
       <c r="D14">
-        <v>0.376</v>
+        <v>0.662</v>
       </c>
       <c r="E14">
-        <v>0.309</v>
+        <v>0.644</v>
       </c>
       <c r="F14">
-        <v>0.522</v>
+        <v>0.41</v>
       </c>
       <c r="G14">
-        <v>0.448</v>
+        <v>0.403</v>
       </c>
       <c r="H14">
-        <v>0.505</v>
+        <v>0.478</v>
       </c>
       <c r="I14">
-        <v>0.539</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1306,28 +1306,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.193</v>
+        <v>-0.346</v>
       </c>
       <c r="C18">
-        <v>-0.282</v>
+        <v>-0.3</v>
       </c>
       <c r="D18">
-        <v>-0.347</v>
+        <v>-0.63</v>
       </c>
       <c r="E18">
-        <v>-0.307</v>
+        <v>-0.621</v>
       </c>
       <c r="F18">
-        <v>-0.449</v>
+        <v>-0.37</v>
       </c>
       <c r="G18">
-        <v>-0.421</v>
+        <v>-0.356</v>
       </c>
       <c r="H18">
-        <v>-0.461</v>
+        <v>-0.437</v>
       </c>
       <c r="I18">
-        <v>-0.449</v>
+        <v>-0.418</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1335,28 +1335,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.201</v>
+        <v>0.418</v>
       </c>
       <c r="C19">
-        <v>0.259</v>
+        <v>0.362</v>
       </c>
       <c r="D19">
-        <v>0.389</v>
+        <v>0.669</v>
       </c>
       <c r="E19">
-        <v>0.315</v>
+        <v>0.656</v>
       </c>
       <c r="F19">
-        <v>0.571</v>
+        <v>0.415</v>
       </c>
       <c r="G19">
-        <v>0.414</v>
+        <v>0.4</v>
       </c>
       <c r="H19">
-        <v>0.476</v>
+        <v>0.474</v>
       </c>
       <c r="I19">
-        <v>0.547</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.225</v>
+        <v>-0.331</v>
       </c>
       <c r="C23">
-        <v>-0.301</v>
+        <v>-0.294</v>
       </c>
       <c r="D23">
-        <v>-0.327</v>
+        <v>-0.663</v>
       </c>
       <c r="E23">
-        <v>-0.286</v>
+        <v>-0.673</v>
       </c>
       <c r="F23">
-        <v>-0.27</v>
+        <v>-0.434</v>
       </c>
       <c r="G23">
-        <v>-0.328</v>
+        <v>-0.425</v>
       </c>
       <c r="H23">
-        <v>-0.365</v>
+        <v>-0.489</v>
       </c>
       <c r="I23">
-        <v>-0.344</v>
+        <v>-0.449</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1424,28 +1424,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.286</v>
+        <v>0.386</v>
       </c>
       <c r="C24">
-        <v>0.368</v>
+        <v>0.309</v>
       </c>
       <c r="D24">
-        <v>0.41</v>
+        <v>0.661</v>
       </c>
       <c r="E24">
-        <v>0.355</v>
+        <v>0.674</v>
       </c>
       <c r="F24">
-        <v>0.302</v>
+        <v>0.455</v>
       </c>
       <c r="G24">
-        <v>0.384</v>
+        <v>0.55</v>
       </c>
       <c r="H24">
-        <v>0.43</v>
+        <v>0.641</v>
       </c>
       <c r="I24">
-        <v>0.403</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1484,28 +1484,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.169</v>
+        <v>-0.313</v>
       </c>
       <c r="C28">
-        <v>-0.261</v>
+        <v>-0.281</v>
       </c>
       <c r="D28">
-        <v>-0.313</v>
+        <v>-0.653</v>
       </c>
       <c r="E28">
-        <v>-0.281</v>
+        <v>-0.66</v>
       </c>
       <c r="F28">
-        <v>-0.417</v>
+        <v>-0.411</v>
       </c>
       <c r="G28">
-        <v>-0.376</v>
+        <v>-0.401</v>
       </c>
       <c r="H28">
-        <v>-0.411</v>
+        <v>-0.466</v>
       </c>
       <c r="I28">
-        <v>-0.401</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1513,28 +1513,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.194</v>
+        <v>0.378</v>
       </c>
       <c r="C29">
-        <v>0.254</v>
+        <v>0.301</v>
       </c>
       <c r="D29">
-        <v>0.378</v>
+        <v>0.655</v>
       </c>
       <c r="E29">
-        <v>0.301</v>
+        <v>0.666</v>
       </c>
       <c r="F29">
-        <v>0.607</v>
+        <v>0.438</v>
       </c>
       <c r="G29">
-        <v>0.376</v>
+        <v>0.547</v>
       </c>
       <c r="H29">
-        <v>0.438</v>
+        <v>0.643</v>
       </c>
       <c r="I29">
-        <v>0.547</v>
+        <v>0.637</v>
       </c>
     </row>
   </sheetData>
